--- a/ig/main/StructureDefinition-EpisodeEvent.xlsx
+++ b/ig/main/StructureDefinition-EpisodeEvent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T15:16:50+00:00</t>
+    <t>2024-04-12T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-EpisodeEvent.xlsx
+++ b/ig/main/StructureDefinition-EpisodeEvent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T15:27:50+00:00</t>
+    <t>2024-04-12T15:58:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
